--- a/src/test/java/excel_Data/kw_frmwork.xlsx
+++ b/src/test/java/excel_Data/kw_frmwork.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t xml:space="preserve">getTableIntoView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get entity names from Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getNamesFromPage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get total amount from Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAmountFromPage</t>
   </si>
 </sst>
 </file>
@@ -65,11 +77,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -91,6 +104,14 @@
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,7 +163,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -156,6 +177,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,12 +204,12 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.52"/>
@@ -253,16 +278,28 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
@@ -302,7 +339,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
